--- a/src/test/resources/ExcelSheet/equipmentNg.xlsx
+++ b/src/test/resources/ExcelSheet/equipmentNg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\ProjectVenkaayam\FinalTokyoProject\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\pagebase_TOKIYO\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>S001</t>
-  </si>
-  <si>
     <t>S0005</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Equipment</t>
+  </si>
+  <si>
+    <t>S0011</t>
   </si>
 </sst>
 </file>
@@ -507,35 +507,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -550,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -558,24 +558,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelSheet/equipmentNg.xlsx
+++ b/src/test/resources/ExcelSheet/equipmentNg.xlsx
@@ -79,9 +79,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>Oven</t>
-  </si>
-  <si>
     <t>AddData</t>
   </si>
   <si>
@@ -91,7 +88,10 @@
     <t>Equipment</t>
   </si>
   <si>
-    <t>S0011</t>
+    <t>S00111</t>
+  </si>
+  <si>
+    <t>Ovens</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -551,7 +551,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -564,18 +564,18 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
